--- a/500all/speech_level/speeches_CHRG-114hhrg94538.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94538.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="466">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412270</t>
   </si>
   <si>
-    <t>Jason Chaffetz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Chaffetz. The committee will come to order.    I thank everybody for joining us here today. Without objection, the chair is authorized to declare a recess at any time.    We are here today to continue a discussion that began a few weeks ago at a joint subcommittee hearing about the President's executive actions on immigration. I want to thank the subcommittee chairmen, particularly Ron DeSantis and Jim Jordan, for starting the committee's review of the new immigration apprehension policies that Secretary of Homeland Security Jeh Johnson announced on November 20th of the year 2014. We now have a better understanding of the various ways those policies may undermine local law enforcement efforts to protect the public.    Today we are going to followup with questions for the newly confirmed Director of Immigration and Customs Enforcement, ICE, Ms. Sarah Saldana, and about how ICE will actually enforce the immigration laws and how their enforcement posture will affect public policy.    We want to particularly thank the men and women who do the hard job and work within ICE. They put their lives on the line every day and we are very grateful for their service, and we are thankful for your service and participation here today.    This hearing is important because it allows us to determine whether non-citizens who committed serious offenses will be apprehended, detained, and then ultimately removed per the promise that the President of the United States gave the American people.    The President's executive actions will have two very different effects on approximately 11 million non-citizens unlawfully present in the United States. Through Deferred Action for Childhood Arrivals, or DACA, and Deferred Action for Parents of Americans and Lawful Permanent Residents, or DAPA, as it is referred to, the Administration intends to provide benefits to about five million otherwise unlawfully present in the Country.    Earlier this month, the subcommittees conducted a hearing focused on how these executive actions may make it easier for these individuals to register to vote illegally. Just this past Tuesday, the subcommittees examined the fiscal costs of these actions to the Federal and State Governments.    Secretary Johnson's November 20th, 2014, announcement will also have an effect on others unlawfully present in the United States. In essence, it will provide de facto amnesty for many of the remaining six million non-citizens unlawfully present in the United States who are not directly covered by DACA or DAPA. Unless these individuals fall within the carefully circumscribed categories, their removal will not be a priority for Department of Homeland Security.    But the core reason we are here today, even under the immigration policies that predated that announcement, convicted criminals who are unlawfully present in the United States have been released in staggering numbers. And this I simply just don't understand. The President, the Secretary, the Administration, time and again has promised the American people that if you are convicted, if you are a criminal, you are going to be deported. But that is not what is happening.    According to ICE, 36,007 convicted criminal non-citizens were released in Fiscal Year 2013. In the year 2014 that number is roughly 30,000. More than 60,000 people. These are people that are here illegally, committed a crime, were convicted, and then they were released back into the public, rather than being deported. That is the question that is posed to us today.    Of the 36,007 individuals from the year 2013, not too long ago, they amassed nearly 88,000 convictions--not accusations, convictions--including 193 homicide convictions, 426 sexual assault convictions, 303 kidnaping convictions, 16,070 drunken or drugged driving convictions. Convictions.    As of September 2014, 5,700 of those individuals went on to commit another crime. They are here illegally, they get caught, they get convicted, they get released, they go back and commit another crime. One thousand of those individuals were convicted again for offenses including lewd acts with a child under the age of 14, indecent liberty with a child, child cruelty, possible injury or death, driving while intoxicated.    I can't even imagine being a parent and having my child molested by somebody who is here illegally. The President promises he is going to be deported and they didn't. They released them back out. And I want to know from ICE why that is. It is intolerable. I could never look the parents of those children in the face with what has been done here.    The joint subcommittee heard compelling testimony from two family members of victims of these types of criminals. In January of this year, 21-year-old Grant Ronnebeck was murdered while working at a convenience store in Mesa, Arizona by a non-citizen unlawfully present in the United States. Prior to Grant's death, his murderer, Apolinar Altamirano, was facing deportation proceedings after being convicted of burglary, but released on a $10,000 bond just 4 days after his detention in 2013.    In March 2008, Jamiel Shaw was a 17-year-old high school football star in Los Angeles, California, when he was murdered by Pedro Espinoza, an illegal immigrant gang member who had been released from jail just 2 days before after serving time for assault with a deadly weapon. They released him back into the public.    While the Department of Homeland Security was invited to testify at that previous hearing, they declined. And I think it is important for the Department representative to hear and see from the American people those lives that are directly impacted by these policies.    We put together a very brief video which is a highlight from the last hearing, and I would like to play that now, if I could, please.    [Video.]</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>400090</t>
   </si>
   <si>
-    <t>Elijah E. Cummings</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cummings. Thank you very much, Mr. Chairman, and I thank you for holding this hearing. I think it is a very important hearing.    This morning, as I read over the testimony from the subcommittee hearing that took place about a month ago, I could not help but feel a deep sense of sorrow for Mr. Shaw and his family, and Mr. Ronnebeck and his family. As one who experienced the murder of my nephew, who was like a son to me, three and a half years ago, I know the pain that comes with that, to see a young person's life snuffed out. So I can understand, Mr. Chairman, how you feel.    And that puts a lot of weight on you, Assistant Secretary Saldana, and I hope you can understand that members on both sides of the aisle have our concerns and have a lot of concern about this. So I want to thank you for being here, and I am sure you will explain exactly what your priorities are and how those things are laid out, and hopefully talk about the court decisions that dictate how you do what you do.    There are about 11 million undocumented immigrants in our Country today. Many of these people are from hard-working, taxpaying families simply looking for a better life. Many have lived here since they were children and many have raised children of their own. They are the ones that I met this weekend, about 150 of them, who were law-abiding people, and the thing that they said to me over and over again is why do they consider us all criminals. They also said that they simply wanted to keep their families together.    I heard firsthand how they live in fear and uncertainty about their futures. They work hard and make their homes in our neighborhoods; yet they live every day in the dangerous outskirts of our society. Almost everyone agrees that our immigration system is broken. That is right, this is not a bulletin coming over the wire. Everybody knows the system is broken.    In the last Congress, the Senate passed legislation supported by Democrats and Republicans that would have offered a comprehensive approach to this problem. The bill not only would have provided a responsible path to citizenship for those who passed background checks and meet other requirements, but it also would have improved our visa systems and established stronger enforcement mechanisms.    The House Republicans refused, refused to call up this bill for a vote. I guarantee you, if it had been called up for a vote, it would have passed.    Despite Speaker Boehner's pledge to address comprehensive immigration reform, a minority of House members in the Republican party stood in the way, blocking, blocking comprehensive reform. As a result, in November, I joined with 116 of my colleagues urging President Obama to use his executive authority to address some of the problems facing our immigration system.    On November 20th, 2014, the Administration took a series of steps to strengthen enforcement, enhance public safety, and temporarily provide peace of mind to qualifying immigrants. In response, House Republicans attacked the Administration's actions, even as they refused to act themselves. For example, they held up funding for the Department of Homeland Security and they criticized the Administration for not removing immigrants who commit crimes.    Let me make a few points for the record in response to this claim. The Obama Administration has removed more people from this Country than any administration in history. Removals hit an all-time high of 438,421 individuals in 2013.    Now, Secretary Saldana, as I read the transcript, there was an issue as to the counting and how that counting was done. I would like for you to talk about that. There was an issue as to whether this Administration is counting differently than past administrations.    Under the Obama Administration, criminal removals have also reached record highs. They have more than doubled from the prior administration, increasing from 84,000 in 2003 to 2007 in 2012.    With respect to the release of immigrant criminals, the Administration is bound by court cases and immigration judge rulings that require releases in many instances. In other cases, DHS releases detainees on a discretionary basis after weighing risk factors, including criminal records, medical histories, and flight risk.    These are the same types of factors routinely considered by local, State, and Federal law enforcement agencies every single day for the general population. In fact, according to an April 2014 report issued by the Department of Justice, the recidivism rate after 12 months for prisoners released across 30 States is more than 20 percent. In contrast, DHS data on immigrant criminals released in Fiscal Year 2013 shows a recidivism rate of less than 3 percent.    I want to be clear here. These decisions are not easy, and the dangers of recidivism are very, very real. Personally, I would be devaStated to learn that someone who injured or killed a member of my family had been in custody, but was released. And I would feel exactly the same way regardless of whether the attacker was an immigrant or a United States citizen.    We have the ability to work together to tackle these issues. That is what the American people want. They do not want us walking away from the hard problems, leaving them on the table when we go home.    The fact is that the comprehensive immigration bill adopted by the Senate on a bipartisan basis would have doubled the number of Border Patrol agents, established an improved system for employers to verify their workers' legal status, and provided new security measures along the border. But it was never allowed a vote in the House of Representatives. So it is time to reach out across the aisle and pass comprehensive immigration reform legislation.    So I look forward to your testimony.    And with that, Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Saldana</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Saldana. Thank you, Chairman, thank you, Ranking Member Cummings, and other committee members. I appreciate the opportunity to testify today, and I really do mean that. I know that many remarks made to this committee start out like that, but I will tell you this is the first congressional committee that I have testified before since I have been the assistant secretary for Homeland Security Immigration and Customs Enforcement, 86 days, 9 hours, and 25 minutes ago.    I consider this a very important part of my job. I do not shirk away from it and I welcome it, and it is part of my education to hear from you all as to your concerns.    As you all know, ICE has a very vital role in securing the homeland through the enforcement of more than 400 laws governing immigration. But we also have laws that affect border control, customs, and trade.    I most recently served as the United States attorney for the Northern District of Texas. I say that very, very proudly. One of the greatest jobs in the world, you will hear every U.S. attorney say. As the chief Federal law enforcement officer for a district that spanned 97,000 square miles, I oversaw the enforcement of these 400 laws and, quite frankly, thousands more under all the Federal statutes.    From my early years cutting my teeth, my prosecutorial teeth on the immigration docket in my office to these first 90 days as Director of Immigration and Customs Enforcement, I have personally observed what the chairman recognized, and that is the talent and dedication of ICE's agents, its officers, its attorneys, its international and mission support staff as they go about the business of securing the homeland. I consider it a great privilege to continue my law enforcement career as the leader of this agency.    Given the topic upon which you have asked me to testify, I want to give you a brief overview of ICE's enforcement and removal operations, a little bit about our recent activity, and then also just highlight some of the challenges that we face.    ICE's Enforcement and Removal Operations Office, again, just a portion of what ICE does, a significant portion, referred to as ERO, is a team of almost 6,000 dedicated law enforcement offices stationed throughout the world, actually, who apprehend and remove undocumented immigrants in a way that focuses our finite resources on those who present the greatest risk to the American public.    In carrying out this mission, they have a wide array of important, very important and complex responsibilities, not the least of which are overseeing the detention facilities, coordinating departures all over the world, and obtaining travel documents from other countries, some of which do not care to cooperate with ICE in any manner.    We work closely with our sister agencies within the homeland security umbrella, Customs and Border Protection, as they encounter and apprehend undocumented immigrants at our borders and at our ports of entry; and citizenship and immigration services as they perform their immigration benefit services.    In 2014, ICE removed nearly 316,000 individuals unlawfully present in the United States. More than 213,000 of these individuals were apprehended while or shortly after attempting to cross our borders. I should point out, in line with the theme of the opening remarks of our chairman and ranking member, that about 85 percent of these interior removals were of undocumented immigrants previously convicted of a criminal offense. That is an 18 percent increase over 2011 and it reflects the agency's renewed focus for some time now on aggressively targeting and removing the worst criminal immigrants: security threats, convicted felons, gang members, and the like.    With respect to the operational challenges we face, first, as you all well know, our Country faced an unprecedented migration of families last summer, including unaccompanied children coming up from the Rio Grande Valley, which required ICE, as well as many other agencies, to shift resources to address that. ICE detailed or transferred almost 800 personnel away from what they were doing and additional monetary resources to deal with this extraordinary influx.    A second challenge is the dramatic increase in the number of jurisdictions that have declined to cooperate with ICE in its law enforcement activities. A detainer advises other law enforcement agencies that ICE intends to assume custody of an individual before that individual is released from the agency's custody, and we ask that individual to be held for a very short time until we can get that custody.    Re-arresting at-large criminal aliens released by State and local jurisdictions only increases the already extraordinary risks our law enforcement officers already face, and is a waste of resources that reduces the number of criminal aliens ICE can apprehend and remove.    Last calendar year, State and local jurisdictions rejected more than 12,000 ICE detainee requests. These are convicted criminals. And ICE has been denied access to more than 275 detention facilities, including those in some of our Country's largest cities and States.    A third challenge we face is the changing migrant demographic. We have recently seen more Central Americans and fewer immigrants from Mexico attempting to cross our borders. It requires more time and resources to complete the removal process for Central Americans, as they demand additional time, resources, staff, enhanced efforts to get travel documents to remove them, and the arrangement of air transportation.    My first 90 days or so as director have been full, both in becoming familiar with the challenges as I just described that face ICE and in formulating and implementing plans to try to address them.    I would be remiss if I did not express my gratitude, since obviously we cannot do our job without proper funding, for the passage earlier this month of a full year appropriation bill for the Department of Homeland Security, which include our agency and its 20,000 employees.    Let me conclude by saying, Mr. Chairman, that I left my family, my friends, the State I have lived in for all my 63 years behind, which, as many of you here facing me have done so as well, for the sole purpose, for the sole purpose of assisting a very proud agency to move forward and to help in whatever small way I can, help our Country to address these very difficult, complex, and divisive issues facing the Country.    Thank you, and I look forward to your questions.</t>
   </si>
   <si>
@@ -220,9 +211,6 @@
     <t>412659</t>
   </si>
   <si>
-    <t>Stacey E. Plaskett</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Plaskett. Yes, good morning and thank you, Mr. Chairman, ranking member.    Secretary Saldana, I thank you so much for the work that you and your agency are doing. I actually was at the Justice Department and working with Larry Thompson and then Jim Comey when your Homeland Security was created, and I think that it has come a far way in its mandate and the mission that it has.    I wanted to talk a little bit about this discretion that the chairman was taking you through in his questioning, and I want to focus on where that discretion comes from, the prosecutorial memorandum that was issued that was created, I believe, because you have not just the courts and the laws, but also limited resources in determining how you are going to detain the individuals that you have, and prioritizing those based on not only the law, but the resources, as you said, the finite resources that are available to your agency.    I did want to note in your testimony that you did say, however, that despite this there has been an 18 percent increase in the amount of individuals that have been deported over the very small period of time and that you are working in that area. So if you would focus your attention on the executive actions that you are taking based on that memo. It provides guidelines for prosecutors and specifically targets areas that we believe are the highest threat to the entire homeland, that being our national security, public safety, and border security.    Could you please explain how this memorandum is different, also, from past guidance that was regarding prosecutorial discretion?</t>
   </si>
   <si>
@@ -250,9 +238,6 @@
     <t>400273</t>
   </si>
   <si>
-    <t>John L. Mica</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mica. Thank you, Mr. Chairman.    Director, welcome. I have a couple of questions. I heard in your opening testimony I know you say that you administer 500 laws and maybe as many as 3,000----</t>
   </si>
   <si>
@@ -331,9 +316,6 @@
     <t xml:space="preserve">    Chairman Chaffetz. Thank you.    We will now recognize the gentleman from Pennsylvania, Mr. Cartwright, for 5 minutes.</t>
   </si>
   <si>
-    <t>Cartwright</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cartwright. Thank you, Mr. Chairman.    And thank you for being here, Director Saldana.</t>
   </si>
   <si>
@@ -403,9 +385,6 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Chairman.    Thank you for your testimony here today. I want to return to what the chairman started out with, and it is about the word discretion, because you have indicated about laws and about the rule of law, and yet there are many who would say that this Administration, specifically ICE, picks and chooses which laws they choose to enforce. And you may call it prioritization, but is that not just a discretion that you choose to use on what you enforce and what you don't enforce?</t>
   </si>
   <si>
@@ -568,9 +547,6 @@
     <t>412638</t>
   </si>
   <si>
-    <t>Brenda L. Lawrence</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Lawrence. Thank you, Chairman and Ranking Member Cummings for holding this hearing.    I want to echo something that as we as a committee and Members of Congress debate and analyze and do our due diligence, that it is truly important, and I think we highlight it every time we have a hearing, that we need comprehensive immigration reform. It is badly needed to address these issues that we are talking about. And I wish that we would use as much passion as we are using in finding those areas that we find unacceptable to use that to improve and to develop comprehensive reform.    Assistant Secretary Saldana, I understand that there are hundreds of thousands of immigrants waiting an average of 587 days for a hearing, and that they are waiting three to 5 years for their cases to be resolved. It is also my understanding that there are only 260, only 260 immigration judges operating in 58 U.S. immigration courts in our Country. In fact, my home State of Michigan, we only have two immigration judges for the entire State.    With immigration judges responsible for an average, an average of 1,500 cases a year, it is no wonder that the National Association of Immigration Judges is saying that these people can wait for years, for years, for a final hearing of their cases.    I know that the Office of the Chief Immigration Judge is housed in the Department of Justice and not in the Homeland Security. But as they are essential to the removal process that we are talking about, or the litigation process, I am trying to understand how your two agencies work together.    So, Assistant Secretary, you tell me what happens to detainees while they await their court dates, and specifically outline your role and the Department of Homeland Security.</t>
   </si>
   <si>
@@ -604,9 +580,6 @@
     <t>412623</t>
   </si>
   <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hice. Thank you, Mr. Chairman.    The bottom line of what we are dealing with, obviously, is the question as to why ICE is releasing convicted criminals who are non-citizens back into the public square. Is it fair to say that the reason for that ultimately comes down to policy?</t>
   </si>
   <si>
@@ -850,9 +823,6 @@
     <t>412526</t>
   </si>
   <si>
-    <t>Ron DeSantis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you, Mr. Chairman.    Good morning, director. I have noticed that the President, particularly since he issued his executive actions on November 20th, has stressed that we are doing this in order to protect the public from criminals, gang members, and he has repeated that a lot. In fact, I think we have a clip very recently where he was----    [Video.]</t>
   </si>
   <si>
@@ -880,9 +850,6 @@
     <t>412622</t>
   </si>
   <si>
-    <t>Earl L. "Buddy" Carter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -892,9 +859,6 @@
     <t>400295</t>
   </si>
   <si>
-    <t>Eleanor Holmes Norton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Norton. Thank you very much, Mr. Chairman.    Ms. Saldana, as you heard the questions, some of them are the kinds of questions you would expect certainly from the average Americans, you know, kind of throw the bones out questions. And, of course, if you catch people at the border, that is one thing. If you catch people who have been involved in our criminal justice system, it is another. And I would like to put some of that on the record because part of this is the frustration, forgive me, with due process of law, how it operates, even with respect to people that have been found, yes, to have committed crimes in this Country, but they have been found through our due process court system.    I want to ask you about Section 236 of the Immigration and Nationality Act, about discretionary release. For example, such people who you apprehend may, for example, qualify for bond, is that not the case?</t>
   </si>
   <si>
@@ -1075,9 +1039,6 @@
     <t>412474</t>
   </si>
   <si>
-    <t>Mick Mulvaney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mulvaney. Thank you, Mr. Chairman.    Thank you, Ms. Saldana, and thank you for sticking around after the votes. I just have a couple of random questions following up on things that you have said and things that other folks have asked you.    You mentioned earlier on today that apprehensions at the border are down and that this is good news. Were you aware that previously Ms. Napolitano had testified before Congress that apprehensions at the border were up and that this was good news?</t>
   </si>
   <si>
@@ -1213,9 +1174,6 @@
     <t>412654</t>
   </si>
   <si>
-    <t>Will Hurd</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hurd. My first question is, how does the inability of deporting every person that violates our laws impact future illegal immigration?</t>
   </si>
   <si>
@@ -1261,9 +1219,6 @@
     <t>412533</t>
   </si>
   <si>
-    <t>Tammy Duckworth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Duckworth. Thank you, Mr. Chairman. I am glad I made it over here. Running between hearings.    Last week, ICE announced the arrest of over 2,000 convicted criminal immigrants as a result of a nationwide operation known as Operation Cross Check. According to ICE, of the 2,059 individuals arrested, more than 1,000 had multiple convictions and more than 1,000 had felony convictions, including robbery, voluntary manslaughter, and rape.    Assistant Secretary Saldana, is this correct?</t>
   </si>
   <si>
@@ -1309,9 +1264,6 @@
     <t>412650</t>
   </si>
   <si>
-    <t>Steve Russell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Russell. Thank you, Mr. Chairman.    And thank you, Director Saldana, for all of the work that you do. Public service is often thankless, as you know. While we might have differences, I do appreciate your service.    The President recently said, in a national address, if you are a criminal, you will be deported. Is that really true?</t>
   </si>
   <si>
@@ -1390,9 +1342,6 @@
     <t>412670</t>
   </si>
   <si>
-    <t>Mark Walker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walker. Thank you, Mr. Chairman. I will try to take maybe half my time.    Thank you for your patience. I know sometimes the questions seem repetitive. I am going to go in a different direction today.    Last month, the secretaries of State from Kansas and Ohio testified right there about their concern about illegal aliens having access to vote; the Social Security numbers gathered from the President's referendum. But the bigger concern was they wanted to keep the rolls very pure and very clean for the people who are actually citizens that are voting.    My question is do you believe the States should have access to the DHS's immigration records so that they can reconcile these voting rolls? I would like to hear your thoughts on that.</t>
   </si>
   <si>
@@ -1439,9 +1388,6 @@
   </si>
   <si>
     <t>412619</t>
-  </si>
-  <si>
-    <t>Ken Buck</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Buck. At the risk of missing votes, I will be brief.    I actually didn't come here to argue or to ask any questions; I just wanted to pass a message to you. I am dating myself, but as a Federal prosecutor I worked with INS agents, not ICE agents. Then as a district attorney I worked with ICE agents.    And I have to tell you that some of the very best people I worked with were from INS and ICE, and the folks that you have on the ground are absolutely passionate about the mission that you have with your agency; and, as a prosecutor, I am sure you probably share my view of I don't want to call them the old INS agents, but INS agents.    The problem I have, and I think the challenge that you have and the message that I wanted to deliver to you today is that the sense of mission is becoming frayed. I think they are getting a lot of mixed messages from DC. While their heart is in public safety and while they are doing their very best to protect the public and work with local law enforcement and work with prosecutors and sheriffs offices and police departments, I think they are getting a mixed message. I would just encourage you to try to work with those folks who are on the ground that I have seen really struggling.    And I don't say this in a partisan way, but really having a morale issue as a result of the various messages being sent out there, both by mayors and city councils and county commissions and others, as well as folks in DC. We were doing much better in 2005, 2006, 2007 in terms of being able to hold people in the local jail and move them through the process. There was a much clearer sense of really what the priorities should be than there is now.    So I just wanted to present that to you in as neutral a way as possible and just encourage you to work with those people because if we lose them, it is a loss to the Federal Government, it is a loss to the public safety.    That is really all I wanted to say. If you would like to comment, I open this for dialog.</t>
@@ -1864,11 +1810,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1890,11 +1834,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1916,11 +1858,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1940,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1968,11 +1906,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1994,11 +1930,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2018,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2046,11 +1978,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2070,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>22</v>
-      </c>
-      <c r="H10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2098,11 +2026,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2122,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2150,11 +2074,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2174,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2202,11 +2122,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2226,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2254,11 +2170,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2278,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2306,11 +2218,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2330,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2358,11 +2266,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2382,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2410,11 +2314,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2434,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2462,11 +2362,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2486,13 +2384,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2514,11 +2410,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2538,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2566,11 +2458,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2590,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2618,11 +2506,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2642,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2670,11 +2554,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2694,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2722,11 +2602,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2746,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2774,11 +2650,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2798,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2826,11 +2698,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2850,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2876,13 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2902,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2930,11 +2794,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2954,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2982,11 +2842,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3006,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3034,11 +2890,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3058,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3086,11 +2938,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3110,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3138,11 +2986,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3162,13 +3008,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
-      </c>
-      <c r="G52" t="s">
-        <v>68</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3188,13 +3032,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3214,13 +3056,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
         <v>67</v>
-      </c>
-      <c r="G54" t="s">
-        <v>68</v>
-      </c>
-      <c r="H54" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3240,13 +3080,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3266,13 +3104,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
-      </c>
-      <c r="G56" t="s">
-        <v>68</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3292,13 +3128,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3318,13 +3152,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" t="s">
-        <v>68</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3346,11 +3178,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3370,13 +3200,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
-      </c>
-      <c r="G60" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3396,13 +3224,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3422,13 +3248,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>77</v>
-      </c>
-      <c r="G62" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3448,13 +3272,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3474,13 +3296,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>77</v>
-      </c>
-      <c r="G64" t="s">
+        <v>73</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
         <v>78</v>
-      </c>
-      <c r="H64" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3500,13 +3320,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3526,13 +3344,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>77</v>
-      </c>
-      <c r="G66" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3552,13 +3368,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3578,13 +3392,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>77</v>
-      </c>
-      <c r="G68" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3604,13 +3416,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3630,13 +3440,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>77</v>
-      </c>
-      <c r="G70" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3656,13 +3464,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3682,13 +3488,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>77</v>
-      </c>
-      <c r="G72" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3708,13 +3512,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3734,13 +3536,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>77</v>
-      </c>
-      <c r="G74" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3760,13 +3560,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3786,13 +3584,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>77</v>
-      </c>
-      <c r="G76" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3812,13 +3608,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3838,13 +3632,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>77</v>
-      </c>
-      <c r="G78" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3864,13 +3656,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3890,13 +3680,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>77</v>
-      </c>
-      <c r="G80" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3916,13 +3704,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3942,13 +3728,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>77</v>
-      </c>
-      <c r="G82" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3968,13 +3752,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3994,13 +3776,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>77</v>
-      </c>
-      <c r="G84" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4022,11 +3802,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4046,13 +3824,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>105</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4072,13 +3848,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4098,13 +3872,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>105</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4124,13 +3896,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4150,13 +3920,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>105</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4176,13 +3944,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4202,13 +3968,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>105</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4228,13 +3992,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4254,13 +4016,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>105</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4280,13 +4040,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4306,13 +4064,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>105</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4332,13 +4088,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4358,13 +4112,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>105</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4384,13 +4136,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4410,13 +4160,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>105</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4436,13 +4184,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4462,13 +4208,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>105</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4488,13 +4232,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4514,13 +4256,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s">
-        <v>105</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4542,11 +4282,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4566,13 +4304,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4592,13 +4328,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107" t="s">
-        <v>105</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4620,11 +4354,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4644,13 +4376,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>128</v>
-      </c>
-      <c r="G109" t="s">
-        <v>129</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4670,13 +4400,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4696,13 +4424,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>128</v>
-      </c>
-      <c r="G111" t="s">
-        <v>129</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4722,13 +4448,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4748,13 +4472,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>128</v>
-      </c>
-      <c r="G113" t="s">
-        <v>129</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4774,13 +4496,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4800,13 +4520,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>128</v>
-      </c>
-      <c r="G115" t="s">
+        <v>122</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
         <v>129</v>
-      </c>
-      <c r="H115" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4826,13 +4544,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4852,13 +4568,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>128</v>
-      </c>
-      <c r="G117" t="s">
-        <v>129</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4878,13 +4592,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4904,13 +4616,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>128</v>
-      </c>
-      <c r="G119" t="s">
-        <v>129</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4930,13 +4640,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4956,13 +4664,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>128</v>
-      </c>
-      <c r="G121" t="s">
-        <v>129</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4982,13 +4688,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5008,13 +4712,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>128</v>
-      </c>
-      <c r="G123" t="s">
-        <v>129</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5034,13 +4736,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5060,13 +4760,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>128</v>
-      </c>
-      <c r="G125" t="s">
-        <v>129</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5086,13 +4784,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5112,13 +4808,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>128</v>
-      </c>
-      <c r="G127" t="s">
-        <v>129</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5138,13 +4832,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>21</v>
-      </c>
-      <c r="G128" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5164,13 +4856,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>128</v>
-      </c>
-      <c r="G129" t="s">
-        <v>129</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5190,13 +4880,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>21</v>
-      </c>
-      <c r="G130" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5216,13 +4904,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>128</v>
-      </c>
-      <c r="G131" t="s">
-        <v>129</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5242,13 +4928,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
-      </c>
-      <c r="G132" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5268,13 +4952,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>128</v>
-      </c>
-      <c r="G133" t="s">
-        <v>129</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5294,13 +4976,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5320,13 +5000,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>128</v>
-      </c>
-      <c r="G135" t="s">
-        <v>129</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5346,13 +5024,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>21</v>
-      </c>
-      <c r="G136" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5372,13 +5048,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>128</v>
-      </c>
-      <c r="G137" t="s">
-        <v>129</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5398,13 +5072,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>128</v>
-      </c>
-      <c r="G138" t="s">
-        <v>129</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5424,13 +5096,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
-      </c>
-      <c r="G139" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5450,13 +5120,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>128</v>
-      </c>
-      <c r="G140" t="s">
-        <v>129</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5476,13 +5144,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5502,13 +5168,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>128</v>
-      </c>
-      <c r="G142" t="s">
-        <v>129</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5528,13 +5192,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>21</v>
-      </c>
-      <c r="G143" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5554,13 +5216,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>128</v>
-      </c>
-      <c r="G144" t="s">
-        <v>129</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5580,13 +5240,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>21</v>
-      </c>
-      <c r="G145" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5606,13 +5264,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>128</v>
-      </c>
-      <c r="G146" t="s">
-        <v>129</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5632,13 +5288,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>21</v>
-      </c>
-      <c r="G147" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5658,13 +5312,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>128</v>
-      </c>
-      <c r="G148" t="s">
-        <v>129</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5686,11 +5338,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5710,13 +5360,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5738,11 +5386,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5762,13 +5408,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
-      </c>
-      <c r="G152" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5790,11 +5434,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5814,13 +5456,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>16</v>
-      </c>
-      <c r="G154" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5840,13 +5480,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>21</v>
-      </c>
-      <c r="G155" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5868,11 +5506,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5892,13 +5528,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>77</v>
-      </c>
-      <c r="G157" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5918,13 +5552,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>21</v>
-      </c>
-      <c r="G158" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5944,13 +5576,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>77</v>
-      </c>
-      <c r="G159" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5972,11 +5602,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5998,11 +5626,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6022,13 +5648,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>21</v>
-      </c>
-      <c r="G162" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6050,11 +5674,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6074,13 +5696,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>183</v>
-      </c>
-      <c r="G164" t="s">
-        <v>184</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6100,13 +5720,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>21</v>
-      </c>
-      <c r="G165" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6126,13 +5744,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>183</v>
-      </c>
-      <c r="G166" t="s">
-        <v>184</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6152,13 +5768,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>21</v>
-      </c>
-      <c r="G167" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6178,13 +5792,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>183</v>
-      </c>
-      <c r="G168" t="s">
-        <v>184</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6206,11 +5818,9 @@
       <c r="F169" t="s">
         <v>11</v>
       </c>
-      <c r="G169" t="s">
-        <v>12</v>
-      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6230,13 +5840,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
+        <v>176</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
         <v>183</v>
-      </c>
-      <c r="G170" t="s">
-        <v>184</v>
-      </c>
-      <c r="H170" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6256,13 +5864,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>21</v>
-      </c>
-      <c r="G171" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6282,13 +5888,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>183</v>
-      </c>
-      <c r="G172" t="s">
-        <v>184</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6310,11 +5914,9 @@
       <c r="F173" t="s">
         <v>11</v>
       </c>
-      <c r="G173" t="s">
-        <v>12</v>
-      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6334,13 +5936,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>195</v>
-      </c>
-      <c r="G174" t="s">
-        <v>196</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6360,13 +5960,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>21</v>
-      </c>
-      <c r="G175" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6386,13 +5984,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>195</v>
-      </c>
-      <c r="G176" t="s">
-        <v>196</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6412,13 +6008,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>21</v>
-      </c>
-      <c r="G177" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6438,13 +6032,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>195</v>
-      </c>
-      <c r="G178" t="s">
-        <v>196</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6464,13 +6056,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>21</v>
-      </c>
-      <c r="G179" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6490,13 +6080,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>195</v>
-      </c>
-      <c r="G180" t="s">
-        <v>196</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6516,13 +6104,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>21</v>
-      </c>
-      <c r="G181" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6542,13 +6128,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>195</v>
-      </c>
-      <c r="G182" t="s">
+        <v>187</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
         <v>196</v>
-      </c>
-      <c r="H182" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6568,13 +6152,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>21</v>
-      </c>
-      <c r="G183" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6594,13 +6176,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>195</v>
-      </c>
-      <c r="G184" t="s">
-        <v>196</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6620,13 +6200,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>21</v>
-      </c>
-      <c r="G185" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6646,13 +6224,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>195</v>
-      </c>
-      <c r="G186" t="s">
-        <v>196</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6672,13 +6248,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>21</v>
-      </c>
-      <c r="G187" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6698,13 +6272,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>195</v>
-      </c>
-      <c r="G188" t="s">
-        <v>196</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6724,13 +6296,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>21</v>
-      </c>
-      <c r="G189" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6750,13 +6320,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>195</v>
-      </c>
-      <c r="G190" t="s">
-        <v>196</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6776,13 +6344,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>21</v>
-      </c>
-      <c r="G191" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6802,13 +6368,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>195</v>
-      </c>
-      <c r="G192" t="s">
-        <v>196</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6828,13 +6392,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>21</v>
-      </c>
-      <c r="G193" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6854,13 +6416,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>195</v>
-      </c>
-      <c r="G194" t="s">
-        <v>196</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6880,13 +6440,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>21</v>
-      </c>
-      <c r="G195" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6906,13 +6464,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>195</v>
-      </c>
-      <c r="G196" t="s">
-        <v>196</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6932,13 +6488,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>21</v>
-      </c>
-      <c r="G197" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6958,13 +6512,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>195</v>
-      </c>
-      <c r="G198" t="s">
-        <v>196</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6984,13 +6536,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>21</v>
-      </c>
-      <c r="G199" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7010,13 +6560,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>195</v>
-      </c>
-      <c r="G200" t="s">
-        <v>196</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7036,13 +6584,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>16</v>
-      </c>
-      <c r="G201" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7064,11 +6610,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>12</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7088,13 +6632,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>21</v>
-      </c>
-      <c r="G203" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7116,11 +6658,9 @@
       <c r="F204" t="s">
         <v>11</v>
       </c>
-      <c r="G204" t="s">
-        <v>12</v>
-      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7140,13 +6680,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>21</v>
-      </c>
-      <c r="G205" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7168,11 +6706,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>12</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7192,13 +6728,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>21</v>
-      </c>
-      <c r="G207" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7220,11 +6754,9 @@
       <c r="F208" t="s">
         <v>11</v>
       </c>
-      <c r="G208" t="s">
-        <v>12</v>
-      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7246,11 +6778,9 @@
       <c r="F209" t="s">
         <v>11</v>
       </c>
-      <c r="G209" t="s">
-        <v>12</v>
-      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7270,13 +6800,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>16</v>
-      </c>
-      <c r="G210" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7296,13 +6824,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>21</v>
-      </c>
-      <c r="G211" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7322,13 +6848,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>16</v>
-      </c>
-      <c r="G212" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7348,13 +6872,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>21</v>
-      </c>
-      <c r="G213" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7374,13 +6896,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>16</v>
-      </c>
-      <c r="G214" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7400,13 +6920,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>21</v>
-      </c>
-      <c r="G215" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7426,13 +6944,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>16</v>
-      </c>
-      <c r="G216" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7452,13 +6968,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>21</v>
-      </c>
-      <c r="G217" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7478,13 +6992,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>16</v>
-      </c>
-      <c r="G218" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7504,13 +7016,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>21</v>
-      </c>
-      <c r="G219" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7530,13 +7040,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>16</v>
-      </c>
-      <c r="G220" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7556,13 +7064,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>21</v>
-      </c>
-      <c r="G221" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7582,13 +7088,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>16</v>
-      </c>
-      <c r="G222" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7608,13 +7112,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>21</v>
-      </c>
-      <c r="G223" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7634,13 +7136,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>16</v>
-      </c>
-      <c r="G224" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7660,13 +7160,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>21</v>
-      </c>
-      <c r="G225" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7686,13 +7184,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>16</v>
-      </c>
-      <c r="G226" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7714,11 +7210,9 @@
       <c r="F227" t="s">
         <v>11</v>
       </c>
-      <c r="G227" t="s">
-        <v>12</v>
-      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7738,13 +7232,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>16</v>
-      </c>
-      <c r="G228" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7764,13 +7256,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>21</v>
-      </c>
-      <c r="G229" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7790,13 +7280,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>16</v>
-      </c>
-      <c r="G230" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7816,13 +7304,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>21</v>
-      </c>
-      <c r="G231" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7842,13 +7328,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>16</v>
-      </c>
-      <c r="G232" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7868,13 +7352,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>21</v>
-      </c>
-      <c r="G233" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7894,13 +7376,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>16</v>
-      </c>
-      <c r="G234" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7922,11 +7402,9 @@
       <c r="F235" t="s">
         <v>11</v>
       </c>
-      <c r="G235" t="s">
-        <v>12</v>
-      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7946,13 +7424,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>16</v>
-      </c>
-      <c r="G236" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7972,13 +7448,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>21</v>
-      </c>
-      <c r="G237" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7998,13 +7472,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>16</v>
-      </c>
-      <c r="G238" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8024,13 +7496,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>21</v>
-      </c>
-      <c r="G239" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8050,13 +7520,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>16</v>
-      </c>
-      <c r="G240" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8076,13 +7544,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>21</v>
-      </c>
-      <c r="G241" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8102,13 +7568,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>16</v>
-      </c>
-      <c r="G242" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8128,13 +7592,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>21</v>
-      </c>
-      <c r="G243" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8154,13 +7616,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>16</v>
-      </c>
-      <c r="G244" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8180,13 +7640,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>21</v>
-      </c>
-      <c r="G245" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8206,13 +7664,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>16</v>
-      </c>
-      <c r="G246" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8232,13 +7688,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>21</v>
-      </c>
-      <c r="G247" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8258,13 +7712,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>16</v>
-      </c>
-      <c r="G248" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8284,13 +7736,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>21</v>
-      </c>
-      <c r="G249" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8310,13 +7760,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>16</v>
-      </c>
-      <c r="G250" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8336,13 +7784,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>21</v>
-      </c>
-      <c r="G251" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8362,13 +7808,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>16</v>
-      </c>
-      <c r="G252" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8388,13 +7832,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>21</v>
-      </c>
-      <c r="G253" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8414,13 +7856,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>16</v>
-      </c>
-      <c r="G254" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8440,13 +7880,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>21</v>
-      </c>
-      <c r="G255" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8466,13 +7904,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>16</v>
-      </c>
-      <c r="G256" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8494,11 +7930,9 @@
       <c r="F257" t="s">
         <v>11</v>
       </c>
-      <c r="G257" t="s">
-        <v>12</v>
-      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8518,13 +7952,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>277</v>
-      </c>
-      <c r="G258" t="s">
-        <v>278</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8544,13 +7976,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>277</v>
-      </c>
-      <c r="G259" t="s">
-        <v>278</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8570,13 +8000,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>21</v>
-      </c>
-      <c r="G260" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8596,13 +8024,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>277</v>
-      </c>
-      <c r="G261" t="s">
-        <v>278</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8622,13 +8048,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>21</v>
-      </c>
-      <c r="G262" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8648,13 +8072,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>277</v>
-      </c>
-      <c r="G263" t="s">
-        <v>278</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8674,13 +8096,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>21</v>
-      </c>
-      <c r="G264" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8702,11 +8122,9 @@
       <c r="F265" t="s">
         <v>11</v>
       </c>
-      <c r="G265" t="s">
-        <v>12</v>
-      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8726,13 +8144,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>287</v>
-      </c>
-      <c r="G266" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8754,11 +8170,9 @@
       <c r="F267" t="s">
         <v>11</v>
       </c>
-      <c r="G267" t="s">
-        <v>12</v>
-      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8778,13 +8192,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>291</v>
-      </c>
-      <c r="G268" t="s">
-        <v>292</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8804,13 +8216,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>21</v>
-      </c>
-      <c r="G269" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8830,13 +8240,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>291</v>
-      </c>
-      <c r="G270" t="s">
-        <v>292</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8856,13 +8264,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>21</v>
-      </c>
-      <c r="G271" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8882,13 +8288,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>291</v>
-      </c>
-      <c r="G272" t="s">
-        <v>292</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8908,13 +8312,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>21</v>
-      </c>
-      <c r="G273" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8934,13 +8336,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>291</v>
-      </c>
-      <c r="G274" t="s">
-        <v>292</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8960,13 +8360,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>21</v>
-      </c>
-      <c r="G275" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8986,13 +8384,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>291</v>
-      </c>
-      <c r="G276" t="s">
-        <v>292</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9012,13 +8408,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>21</v>
-      </c>
-      <c r="G277" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9038,13 +8432,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>291</v>
-      </c>
-      <c r="G278" t="s">
-        <v>292</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9064,13 +8456,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>21</v>
-      </c>
-      <c r="G279" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9090,13 +8480,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>291</v>
-      </c>
-      <c r="G280" t="s">
+        <v>280</v>
+      </c>
+      <c r="G280" t="s"/>
+      <c r="H280" t="s">
         <v>292</v>
-      </c>
-      <c r="H280" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9116,13 +8504,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>21</v>
-      </c>
-      <c r="G281" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9142,13 +8528,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>291</v>
-      </c>
-      <c r="G282" t="s">
-        <v>292</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9168,13 +8552,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>21</v>
-      </c>
-      <c r="G283" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9194,13 +8576,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>291</v>
-      </c>
-      <c r="G284" t="s">
-        <v>292</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9220,13 +8600,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>21</v>
-      </c>
-      <c r="G285" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9246,13 +8624,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>291</v>
-      </c>
-      <c r="G286" t="s">
-        <v>292</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9272,13 +8648,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>21</v>
-      </c>
-      <c r="G287" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9298,13 +8672,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>291</v>
-      </c>
-      <c r="G288" t="s">
-        <v>292</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9324,13 +8696,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>21</v>
-      </c>
-      <c r="G289" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9350,13 +8720,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>291</v>
-      </c>
-      <c r="G290" t="s">
-        <v>292</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9376,13 +8744,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>21</v>
-      </c>
-      <c r="G291" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9402,13 +8768,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>291</v>
-      </c>
-      <c r="G292" t="s">
-        <v>292</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9428,13 +8792,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>21</v>
-      </c>
-      <c r="G293" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9456,11 +8818,9 @@
       <c r="F294" t="s">
         <v>11</v>
       </c>
-      <c r="G294" t="s">
-        <v>12</v>
-      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9480,13 +8840,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>287</v>
-      </c>
-      <c r="G295" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9506,13 +8864,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>21</v>
-      </c>
-      <c r="G296" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9532,13 +8888,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>287</v>
-      </c>
-      <c r="G297" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9558,13 +8912,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>21</v>
-      </c>
-      <c r="G298" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9584,13 +8936,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>287</v>
-      </c>
-      <c r="G299" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9610,13 +8960,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>21</v>
-      </c>
-      <c r="G300" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9636,13 +8984,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>287</v>
-      </c>
-      <c r="G301" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9664,11 +9010,9 @@
       <c r="F302" t="s">
         <v>11</v>
       </c>
-      <c r="G302" t="s">
-        <v>12</v>
-      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9688,13 +9032,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>287</v>
-      </c>
-      <c r="G303" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9714,13 +9056,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>21</v>
-      </c>
-      <c r="G304" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9740,13 +9080,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>287</v>
-      </c>
-      <c r="G305" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9766,13 +9104,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>21</v>
-      </c>
-      <c r="G306" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9792,13 +9128,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>287</v>
-      </c>
-      <c r="G307" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9818,13 +9152,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>287</v>
-      </c>
-      <c r="G308" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9844,13 +9176,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>21</v>
-      </c>
-      <c r="G309" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9870,13 +9200,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>287</v>
-      </c>
-      <c r="G310" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9896,13 +9224,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>21</v>
-      </c>
-      <c r="G311" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9922,13 +9248,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>287</v>
-      </c>
-      <c r="G312" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9948,13 +9272,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>21</v>
-      </c>
-      <c r="G313" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9974,13 +9296,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>287</v>
-      </c>
-      <c r="G314" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10000,13 +9320,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>21</v>
-      </c>
-      <c r="G315" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10026,13 +9344,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>287</v>
-      </c>
-      <c r="G316" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10052,13 +9368,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>21</v>
-      </c>
-      <c r="G317" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10078,13 +9392,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>287</v>
-      </c>
-      <c r="G318" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10104,13 +9416,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>21</v>
-      </c>
-      <c r="G319" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10130,13 +9440,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>287</v>
-      </c>
-      <c r="G320" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10156,13 +9464,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>21</v>
-      </c>
-      <c r="G321" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10182,13 +9488,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>287</v>
-      </c>
-      <c r="G322" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10208,13 +9512,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>21</v>
-      </c>
-      <c r="G323" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10234,13 +9536,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>287</v>
-      </c>
-      <c r="G324" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10260,13 +9560,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>21</v>
-      </c>
-      <c r="G325" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10286,13 +9584,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>287</v>
-      </c>
-      <c r="G326" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10312,13 +9608,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>21</v>
-      </c>
-      <c r="G327" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10338,13 +9632,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>287</v>
-      </c>
-      <c r="G328" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10364,13 +9656,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>21</v>
-      </c>
-      <c r="G329" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10390,13 +9680,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>287</v>
-      </c>
-      <c r="G330" t="s">
-        <v>288</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10418,11 +9706,9 @@
       <c r="F331" t="s">
         <v>11</v>
       </c>
-      <c r="G331" t="s">
-        <v>12</v>
-      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10442,13 +9728,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>352</v>
-      </c>
-      <c r="G332" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10468,13 +9752,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>21</v>
-      </c>
-      <c r="G333" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10494,13 +9776,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>352</v>
-      </c>
-      <c r="G334" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10520,13 +9800,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>21</v>
-      </c>
-      <c r="G335" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10546,13 +9824,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>352</v>
-      </c>
-      <c r="G336" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10572,13 +9848,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>21</v>
-      </c>
-      <c r="G337" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10598,13 +9872,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>352</v>
-      </c>
-      <c r="G338" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10624,13 +9896,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>21</v>
-      </c>
-      <c r="G339" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10650,13 +9920,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>352</v>
-      </c>
-      <c r="G340" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10676,13 +9944,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>21</v>
-      </c>
-      <c r="G341" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10702,13 +9968,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>352</v>
-      </c>
-      <c r="G342" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10728,13 +9992,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>21</v>
-      </c>
-      <c r="G343" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10754,13 +10016,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>352</v>
-      </c>
-      <c r="G344" t="s">
+        <v>340</v>
+      </c>
+      <c r="G344" t="s"/>
+      <c r="H344" t="s">
         <v>353</v>
-      </c>
-      <c r="H344" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10780,13 +10040,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>21</v>
-      </c>
-      <c r="G345" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10806,13 +10064,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>352</v>
-      </c>
-      <c r="G346" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10832,13 +10088,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>21</v>
-      </c>
-      <c r="G347" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10858,13 +10112,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>352</v>
-      </c>
-      <c r="G348" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10884,13 +10136,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>21</v>
-      </c>
-      <c r="G349" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10910,13 +10160,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>352</v>
-      </c>
-      <c r="G350" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10936,13 +10184,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>21</v>
-      </c>
-      <c r="G351" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10962,13 +10208,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>352</v>
-      </c>
-      <c r="G352" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10988,13 +10232,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>21</v>
-      </c>
-      <c r="G353" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11014,13 +10256,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>352</v>
-      </c>
-      <c r="G354" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11040,13 +10280,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>21</v>
-      </c>
-      <c r="G355" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11066,13 +10304,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>352</v>
-      </c>
-      <c r="G356" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11092,13 +10328,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>21</v>
-      </c>
-      <c r="G357" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11118,13 +10352,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>352</v>
-      </c>
-      <c r="G358" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11144,13 +10376,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>21</v>
-      </c>
-      <c r="G359" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11170,13 +10400,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>352</v>
-      </c>
-      <c r="G360" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11196,13 +10424,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>21</v>
-      </c>
-      <c r="G361" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11222,13 +10448,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>352</v>
-      </c>
-      <c r="G362" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11248,13 +10472,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>21</v>
-      </c>
-      <c r="G363" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11274,13 +10496,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>352</v>
-      </c>
-      <c r="G364" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11300,13 +10520,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>21</v>
-      </c>
-      <c r="G365" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11326,13 +10544,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>352</v>
-      </c>
-      <c r="G366" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11352,13 +10568,11 @@
         <v>10</v>
       </c>
       <c r="F367" t="s">
-        <v>21</v>
-      </c>
-      <c r="G367" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11378,13 +10592,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>352</v>
-      </c>
-      <c r="G368" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11404,13 +10616,11 @@
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>21</v>
-      </c>
-      <c r="G369" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11430,13 +10640,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>352</v>
-      </c>
-      <c r="G370" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11456,13 +10664,11 @@
         <v>10</v>
       </c>
       <c r="F371" t="s">
-        <v>21</v>
-      </c>
-      <c r="G371" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11482,13 +10688,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>352</v>
-      </c>
-      <c r="G372" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11508,13 +10712,11 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>21</v>
-      </c>
-      <c r="G373" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11534,13 +10736,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>352</v>
-      </c>
-      <c r="G374" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11562,11 +10762,9 @@
       <c r="F375" t="s">
         <v>11</v>
       </c>
-      <c r="G375" t="s">
-        <v>12</v>
-      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11586,13 +10784,11 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>21</v>
-      </c>
-      <c r="G376" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11612,13 +10808,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>398</v>
-      </c>
-      <c r="G377" t="s">
-        <v>399</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11638,13 +10832,11 @@
         <v>10</v>
       </c>
       <c r="F378" t="s">
-        <v>21</v>
-      </c>
-      <c r="G378" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11664,13 +10856,11 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>398</v>
-      </c>
-      <c r="G379" t="s">
-        <v>399</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11690,13 +10880,11 @@
         <v>10</v>
       </c>
       <c r="F380" t="s">
-        <v>21</v>
-      </c>
-      <c r="G380" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11716,13 +10904,11 @@
         <v>10</v>
       </c>
       <c r="F381" t="s">
-        <v>398</v>
-      </c>
-      <c r="G381" t="s">
-        <v>399</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11742,13 +10928,11 @@
         <v>10</v>
       </c>
       <c r="F382" t="s">
-        <v>21</v>
-      </c>
-      <c r="G382" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11768,13 +10952,11 @@
         <v>10</v>
       </c>
       <c r="F383" t="s">
-        <v>398</v>
-      </c>
-      <c r="G383" t="s">
-        <v>399</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11794,13 +10976,11 @@
         <v>10</v>
       </c>
       <c r="F384" t="s">
-        <v>21</v>
-      </c>
-      <c r="G384" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11820,13 +11000,11 @@
         <v>10</v>
       </c>
       <c r="F385" t="s">
-        <v>398</v>
-      </c>
-      <c r="G385" t="s">
-        <v>399</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11846,13 +11024,11 @@
         <v>10</v>
       </c>
       <c r="F386" t="s">
-        <v>21</v>
-      </c>
-      <c r="G386" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11872,13 +11048,11 @@
         <v>10</v>
       </c>
       <c r="F387" t="s">
-        <v>398</v>
-      </c>
-      <c r="G387" t="s">
-        <v>399</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11898,13 +11072,11 @@
         <v>10</v>
       </c>
       <c r="F388" t="s">
-        <v>21</v>
-      </c>
-      <c r="G388" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11924,13 +11096,11 @@
         <v>10</v>
       </c>
       <c r="F389" t="s">
+        <v>385</v>
+      </c>
+      <c r="G389" t="s"/>
+      <c r="H389" t="s">
         <v>398</v>
-      </c>
-      <c r="G389" t="s">
-        <v>399</v>
-      </c>
-      <c r="H389" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11950,13 +11120,11 @@
         <v>10</v>
       </c>
       <c r="F390" t="s">
-        <v>352</v>
-      </c>
-      <c r="G390" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11976,13 +11144,11 @@
         <v>10</v>
       </c>
       <c r="F391" t="s">
-        <v>414</v>
-      </c>
-      <c r="G391" t="s">
-        <v>415</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="G391" t="s"/>
       <c r="H391" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12002,13 +11168,11 @@
         <v>10</v>
       </c>
       <c r="F392" t="s">
-        <v>21</v>
-      </c>
-      <c r="G392" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G392" t="s"/>
       <c r="H392" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12028,13 +11192,11 @@
         <v>10</v>
       </c>
       <c r="F393" t="s">
-        <v>414</v>
-      </c>
-      <c r="G393" t="s">
-        <v>415</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12054,13 +11216,11 @@
         <v>10</v>
       </c>
       <c r="F394" t="s">
-        <v>21</v>
-      </c>
-      <c r="G394" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G394" t="s"/>
       <c r="H394" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12080,13 +11240,11 @@
         <v>10</v>
       </c>
       <c r="F395" t="s">
-        <v>414</v>
-      </c>
-      <c r="G395" t="s">
-        <v>415</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12106,13 +11264,11 @@
         <v>10</v>
       </c>
       <c r="F396" t="s">
-        <v>21</v>
-      </c>
-      <c r="G396" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12132,13 +11288,11 @@
         <v>10</v>
       </c>
       <c r="F397" t="s">
-        <v>414</v>
-      </c>
-      <c r="G397" t="s">
-        <v>415</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="G397" t="s"/>
       <c r="H397" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12158,13 +11312,11 @@
         <v>10</v>
       </c>
       <c r="F398" t="s">
-        <v>21</v>
-      </c>
-      <c r="G398" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12184,13 +11336,11 @@
         <v>10</v>
       </c>
       <c r="F399" t="s">
-        <v>414</v>
-      </c>
-      <c r="G399" t="s">
-        <v>415</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="G399" t="s"/>
       <c r="H399" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12210,13 +11360,11 @@
         <v>10</v>
       </c>
       <c r="F400" t="s">
-        <v>21</v>
-      </c>
-      <c r="G400" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G400" t="s"/>
       <c r="H400" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12236,13 +11384,11 @@
         <v>10</v>
       </c>
       <c r="F401" t="s">
-        <v>414</v>
-      </c>
-      <c r="G401" t="s">
-        <v>415</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="G401" t="s"/>
       <c r="H401" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12262,13 +11408,11 @@
         <v>10</v>
       </c>
       <c r="F402" t="s">
-        <v>21</v>
-      </c>
-      <c r="G402" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G402" t="s"/>
       <c r="H402" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12288,13 +11432,11 @@
         <v>10</v>
       </c>
       <c r="F403" t="s">
-        <v>414</v>
-      </c>
-      <c r="G403" t="s">
-        <v>415</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="G403" t="s"/>
       <c r="H403" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12314,13 +11456,11 @@
         <v>10</v>
       </c>
       <c r="F404" t="s">
-        <v>352</v>
-      </c>
-      <c r="G404" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G404" t="s"/>
       <c r="H404" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12340,13 +11480,11 @@
         <v>10</v>
       </c>
       <c r="F405" t="s">
-        <v>430</v>
-      </c>
-      <c r="G405" t="s">
-        <v>431</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="G405" t="s"/>
       <c r="H405" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12366,13 +11504,11 @@
         <v>10</v>
       </c>
       <c r="F406" t="s">
-        <v>21</v>
-      </c>
-      <c r="G406" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G406" t="s"/>
       <c r="H406" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12392,13 +11528,11 @@
         <v>10</v>
       </c>
       <c r="F407" t="s">
-        <v>430</v>
-      </c>
-      <c r="G407" t="s">
-        <v>431</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="G407" t="s"/>
       <c r="H407" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12418,13 +11552,11 @@
         <v>10</v>
       </c>
       <c r="F408" t="s">
-        <v>21</v>
-      </c>
-      <c r="G408" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G408" t="s"/>
       <c r="H408" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12444,13 +11576,11 @@
         <v>10</v>
       </c>
       <c r="F409" t="s">
-        <v>430</v>
-      </c>
-      <c r="G409" t="s">
-        <v>431</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="G409" t="s"/>
       <c r="H409" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12470,13 +11600,11 @@
         <v>10</v>
       </c>
       <c r="F410" t="s">
-        <v>21</v>
-      </c>
-      <c r="G410" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G410" t="s"/>
       <c r="H410" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12496,13 +11624,11 @@
         <v>10</v>
       </c>
       <c r="F411" t="s">
-        <v>430</v>
-      </c>
-      <c r="G411" t="s">
-        <v>431</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="G411" t="s"/>
       <c r="H411" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12522,13 +11648,11 @@
         <v>10</v>
       </c>
       <c r="F412" t="s">
-        <v>21</v>
-      </c>
-      <c r="G412" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G412" t="s"/>
       <c r="H412" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12548,13 +11672,11 @@
         <v>10</v>
       </c>
       <c r="F413" t="s">
-        <v>430</v>
-      </c>
-      <c r="G413" t="s">
-        <v>431</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="G413" t="s"/>
       <c r="H413" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12574,13 +11696,11 @@
         <v>10</v>
       </c>
       <c r="F414" t="s">
-        <v>21</v>
-      </c>
-      <c r="G414" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G414" t="s"/>
       <c r="H414" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12600,13 +11720,11 @@
         <v>10</v>
       </c>
       <c r="F415" t="s">
-        <v>430</v>
-      </c>
-      <c r="G415" t="s">
-        <v>431</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="G415" t="s"/>
       <c r="H415" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12626,13 +11744,11 @@
         <v>10</v>
       </c>
       <c r="F416" t="s">
-        <v>21</v>
-      </c>
-      <c r="G416" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G416" t="s"/>
       <c r="H416" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12652,13 +11768,11 @@
         <v>10</v>
       </c>
       <c r="F417" t="s">
-        <v>430</v>
-      </c>
-      <c r="G417" t="s">
-        <v>431</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="G417" t="s"/>
       <c r="H417" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12678,13 +11792,11 @@
         <v>10</v>
       </c>
       <c r="F418" t="s">
-        <v>21</v>
-      </c>
-      <c r="G418" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G418" t="s"/>
       <c r="H418" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12704,13 +11816,11 @@
         <v>10</v>
       </c>
       <c r="F419" t="s">
-        <v>430</v>
-      </c>
-      <c r="G419" t="s">
-        <v>431</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="G419" t="s"/>
       <c r="H419" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12730,13 +11840,11 @@
         <v>10</v>
       </c>
       <c r="F420" t="s">
-        <v>21</v>
-      </c>
-      <c r="G420" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G420" t="s"/>
       <c r="H420" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12756,13 +11864,11 @@
         <v>10</v>
       </c>
       <c r="F421" t="s">
-        <v>430</v>
-      </c>
-      <c r="G421" t="s">
+        <v>415</v>
+      </c>
+      <c r="G421" t="s"/>
+      <c r="H421" t="s">
         <v>431</v>
-      </c>
-      <c r="H421" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12782,13 +11888,11 @@
         <v>10</v>
       </c>
       <c r="F422" t="s">
-        <v>21</v>
-      </c>
-      <c r="G422" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G422" t="s"/>
       <c r="H422" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12808,13 +11912,11 @@
         <v>10</v>
       </c>
       <c r="F423" t="s">
-        <v>430</v>
-      </c>
-      <c r="G423" t="s">
-        <v>431</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="G423" t="s"/>
       <c r="H423" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -12834,13 +11936,11 @@
         <v>10</v>
       </c>
       <c r="F424" t="s">
-        <v>21</v>
-      </c>
-      <c r="G424" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G424" t="s"/>
       <c r="H424" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -12860,13 +11960,11 @@
         <v>10</v>
       </c>
       <c r="F425" t="s">
-        <v>430</v>
-      </c>
-      <c r="G425" t="s">
-        <v>431</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="G425" t="s"/>
       <c r="H425" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -12886,13 +11984,11 @@
         <v>10</v>
       </c>
       <c r="F426" t="s">
-        <v>21</v>
-      </c>
-      <c r="G426" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G426" t="s"/>
       <c r="H426" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -12912,13 +12008,11 @@
         <v>10</v>
       </c>
       <c r="F427" t="s">
-        <v>430</v>
-      </c>
-      <c r="G427" t="s">
-        <v>431</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="G427" t="s"/>
       <c r="H427" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12938,13 +12032,11 @@
         <v>10</v>
       </c>
       <c r="F428" t="s">
-        <v>21</v>
-      </c>
-      <c r="G428" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G428" t="s"/>
       <c r="H428" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -12964,13 +12056,11 @@
         <v>10</v>
       </c>
       <c r="F429" t="s">
-        <v>430</v>
-      </c>
-      <c r="G429" t="s">
-        <v>431</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="G429" t="s"/>
       <c r="H429" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -12990,13 +12080,11 @@
         <v>10</v>
       </c>
       <c r="F430" t="s">
-        <v>352</v>
-      </c>
-      <c r="G430" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G430" t="s"/>
       <c r="H430" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13016,13 +12104,11 @@
         <v>10</v>
       </c>
       <c r="F431" t="s">
-        <v>457</v>
-      </c>
-      <c r="G431" t="s">
-        <v>458</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="G431" t="s"/>
       <c r="H431" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13042,13 +12128,11 @@
         <v>10</v>
       </c>
       <c r="F432" t="s">
-        <v>21</v>
-      </c>
-      <c r="G432" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G432" t="s"/>
       <c r="H432" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13068,13 +12152,11 @@
         <v>10</v>
       </c>
       <c r="F433" t="s">
-        <v>457</v>
-      </c>
-      <c r="G433" t="s">
-        <v>458</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="G433" t="s"/>
       <c r="H433" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13094,13 +12176,11 @@
         <v>10</v>
       </c>
       <c r="F434" t="s">
-        <v>21</v>
-      </c>
-      <c r="G434" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G434" t="s"/>
       <c r="H434" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13120,13 +12200,11 @@
         <v>10</v>
       </c>
       <c r="F435" t="s">
-        <v>457</v>
-      </c>
-      <c r="G435" t="s">
-        <v>458</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="G435" t="s"/>
       <c r="H435" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13146,13 +12224,11 @@
         <v>10</v>
       </c>
       <c r="F436" t="s">
-        <v>21</v>
-      </c>
-      <c r="G436" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G436" t="s"/>
       <c r="H436" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13172,13 +12248,11 @@
         <v>10</v>
       </c>
       <c r="F437" t="s">
-        <v>457</v>
-      </c>
-      <c r="G437" t="s">
-        <v>458</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="G437" t="s"/>
       <c r="H437" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13198,13 +12272,11 @@
         <v>10</v>
       </c>
       <c r="F438" t="s">
-        <v>21</v>
-      </c>
-      <c r="G438" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G438" t="s"/>
       <c r="H438" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13224,13 +12296,11 @@
         <v>10</v>
       </c>
       <c r="F439" t="s">
-        <v>457</v>
-      </c>
-      <c r="G439" t="s">
-        <v>458</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="G439" t="s"/>
       <c r="H439" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13250,13 +12320,11 @@
         <v>10</v>
       </c>
       <c r="F440" t="s">
-        <v>21</v>
-      </c>
-      <c r="G440" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G440" t="s"/>
       <c r="H440" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13276,13 +12344,11 @@
         <v>10</v>
       </c>
       <c r="F441" t="s">
-        <v>457</v>
-      </c>
-      <c r="G441" t="s">
-        <v>458</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="G441" t="s"/>
       <c r="H441" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13302,13 +12368,11 @@
         <v>10</v>
       </c>
       <c r="F442" t="s">
-        <v>21</v>
-      </c>
-      <c r="G442" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G442" t="s"/>
       <c r="H442" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13328,13 +12392,11 @@
         <v>10</v>
       </c>
       <c r="F443" t="s">
-        <v>457</v>
-      </c>
-      <c r="G443" t="s">
-        <v>458</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="G443" t="s"/>
       <c r="H443" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13354,13 +12416,11 @@
         <v>10</v>
       </c>
       <c r="F444" t="s">
-        <v>21</v>
-      </c>
-      <c r="G444" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G444" t="s"/>
       <c r="H444" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13380,13 +12440,11 @@
         <v>10</v>
       </c>
       <c r="F445" t="s">
-        <v>457</v>
-      </c>
-      <c r="G445" t="s">
-        <v>458</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="G445" t="s"/>
       <c r="H445" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13406,13 +12464,11 @@
         <v>10</v>
       </c>
       <c r="F446" t="s">
-        <v>352</v>
-      </c>
-      <c r="G446" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G446" t="s"/>
       <c r="H446" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13432,13 +12488,11 @@
         <v>10</v>
       </c>
       <c r="F447" t="s">
-        <v>474</v>
-      </c>
-      <c r="G447" t="s">
-        <v>475</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="G447" t="s"/>
       <c r="H447" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13458,13 +12512,11 @@
         <v>10</v>
       </c>
       <c r="F448" t="s">
-        <v>21</v>
-      </c>
-      <c r="G448" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G448" t="s"/>
       <c r="H448" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13484,13 +12536,11 @@
         <v>10</v>
       </c>
       <c r="F449" t="s">
-        <v>474</v>
-      </c>
-      <c r="G449" t="s">
-        <v>475</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="G449" t="s"/>
       <c r="H449" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13510,13 +12560,11 @@
         <v>10</v>
       </c>
       <c r="F450" t="s">
-        <v>21</v>
-      </c>
-      <c r="G450" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G450" t="s"/>
       <c r="H450" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13536,13 +12584,11 @@
         <v>10</v>
       </c>
       <c r="F451" t="s">
-        <v>474</v>
-      </c>
-      <c r="G451" t="s">
-        <v>475</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="G451" t="s"/>
       <c r="H451" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13562,13 +12608,11 @@
         <v>10</v>
       </c>
       <c r="F452" t="s">
-        <v>352</v>
-      </c>
-      <c r="G452" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G452" t="s"/>
       <c r="H452" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13588,13 +12632,11 @@
         <v>10</v>
       </c>
       <c r="F453" t="s">
-        <v>16</v>
-      </c>
-      <c r="G453" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G453" t="s"/>
       <c r="H453" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13614,13 +12656,11 @@
         <v>10</v>
       </c>
       <c r="F454" t="s">
-        <v>21</v>
-      </c>
-      <c r="G454" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G454" t="s"/>
       <c r="H454" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13640,13 +12680,11 @@
         <v>10</v>
       </c>
       <c r="F455" t="s">
-        <v>352</v>
-      </c>
-      <c r="G455" t="s">
-        <v>353</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G455" t="s"/>
       <c r="H455" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
